--- a/LOGS/7b67619b-41e6-4e04-846a-973953d5b49c/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/7b67619b-41e6-4e04-846a-973953d5b49c/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="89">
   <si>
     <t>rows</t>
   </si>
@@ -157,6 +157,45 @@
   </si>
   <si>
     <t>Current 11. Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>None Current tax liabilities</t>
+  </si>
+  <si>
+    <t>Current tax Inr respect of the current year</t>
+  </si>
+  <si>
+    <t>Current tax Inr respect of prior years</t>
+  </si>
+  <si>
+    <t>Current tax Total</t>
+  </si>
+  <si>
+    <t>Deferred tax Inr respect of the current year</t>
+  </si>
+  <si>
+    <t>Deferred tax Total</t>
+  </si>
+  <si>
+    <t>Total income tax expense recognised in the current year relating to continuing operations Total income tax expense recognised in the current year relating to continuing operations</t>
+  </si>
+  <si>
+    <t>None Profit before income tax from continuing operations Profit before income tax from continuing operations Profit before income tax from continuing operations</t>
+  </si>
+  <si>
+    <t>None Tax at the statutory tax rate of 30% (2022: 30%) Tax at the statutory tax rate of 30% (2022: 30%) Tax at the statutory tax rate of 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>None Effect of expenses that are not deductible in determining taxable profit Effect of expenses that are not deductible in determining taxable profit Effect of expenses that are not deductible in determining taxable profit</t>
+  </si>
+  <si>
+    <t>None Total nan nan</t>
+  </si>
+  <si>
+    <t>Adjustments recognised in the current year in relation to the tax expense of prior years Adjustments recognised in the current year in relation to the tax expense of prior years Adjustments recognised in the current year in relation to the tax expense of prior years Adjustments recognised in the current year in relation to the tax expense of prior years</t>
+  </si>
+  <si>
+    <t>Adjustments recognised in the current year in relation to the tax expense of prior years Income tax expense reported in the statement of profit or loss Income tax expense reported in the statement of profit or loss Income tax expense reported in the statement of profit or loss</t>
   </si>
   <si>
     <t>Current Payables to related parties (Note 23)</t>
@@ -1592,36 +1631,490 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-348543</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>-2236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>517526</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>-2236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>515290</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>-227170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>-227170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>288120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>54696</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>29512</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>84208</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>93621</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>93621</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>177829</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>942579</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>282773</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>7583</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>290356</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>-2236</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>288120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>487466</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>146240</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>2077</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>148317</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>29512</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>177829</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1653,7 +2146,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1665,12 +2158,12 @@
         <v>1937201</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1682,12 +2175,12 @@
         <v>851</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1699,12 +2192,12 @@
         <v>13474</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1716,12 +2209,12 @@
         <v>135159</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1733,12 +2226,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1750,12 +2243,12 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1767,12 +2260,12 @@
         <v>1315843</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1784,12 +2277,12 @@
         <v>47060</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1801,12 +2294,12 @@
         <v>83111</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1818,12 +2311,12 @@
         <v>143007</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1835,12 +2328,12 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1852,7 +2345,7 @@
         <v>2022</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +2380,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1899,12 +2392,12 @@
         <v>4054594</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1916,12 +2409,12 @@
         <v>985287</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1933,7 +2426,7 @@
         <v>19092</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1950,12 +2443,12 @@
         <v>5058973</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1967,12 +2460,12 @@
         <v>13014483</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1984,12 +2477,12 @@
         <v>579462</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2001,7 +2494,7 @@
         <v>19019</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2018,7 +2511,7 @@
         <v>13612964</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2546,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2065,12 +2558,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2082,7 +2575,7 @@
         <v>3000000</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2610,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2129,12 +2622,12 @@
         <v>272246</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2146,7 +2639,7 @@
         <v>308893</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2163,12 +2656,12 @@
         <v>581139</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2180,12 +2673,12 @@
         <v>163546</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2197,12 +2690,12 @@
         <v>196683</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2214,12 +2707,12 @@
         <v>112210</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2231,12 +2724,12 @@
         <v>308893</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2248,12 +2741,12 @@
         <v>196683</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2265,7 +2758,7 @@
         <v>228764</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2282,12 +2775,12 @@
         <v>425447</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2299,12 +2792,12 @@
         <v>193565</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2316,12 +2809,12 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2333,12 +2826,12 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2350,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2942,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2461,12 +2954,12 @@
         <v>100274</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2478,12 +2971,12 @@
         <v>51293</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2495,12 +2988,12 @@
         <v>151567</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2512,12 +3005,12 @@
         <v>96417</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2529,12 +3022,12 @@
         <v>151567</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2546,7 +3039,7 @@
         <v>247984</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2581,7 +3074,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2593,12 +3086,12 @@
         <v>96470</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2610,7 +3103,7 @@
         <v>42040</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2627,12 +3120,12 @@
         <v>138510</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2644,12 +3137,12 @@
         <v>88920</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2661,7 +3154,7 @@
         <v>138510</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2678,7 +3171,7 @@
         <v>227430</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +3206,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2725,12 +3218,12 @@
         <v>500000</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2742,7 +3235,7 @@
         <v>500000</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +3270,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2789,12 +3282,12 @@
         <v>19456273</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2806,12 +3299,12 @@
         <v>1709275</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2823,12 +3316,12 @@
         <v>21165548</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2840,12 +3333,12 @@
         <v>19456273</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2857,12 +3350,12 @@
         <v>1709275</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2874,12 +3367,12 @@
         <v>21165548</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2891,12 +3384,12 @@
         <v>8220825</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2908,12 +3401,12 @@
         <v>1297845</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2925,12 +3418,12 @@
         <v>9518670</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2942,12 +3435,12 @@
         <v>8220825</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2959,12 +3452,12 @@
         <v>1297845</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2976,7 +3469,7 @@
         <v>9518670</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3504,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3023,12 +3516,12 @@
         <v>284000</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3040,7 +3533,7 @@
         <v>99000</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
